--- a/biology/Botanique/Loganiaceae/Loganiaceae.xlsx
+++ b/biology/Botanique/Loganiaceae/Loganiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Loganiacées regroupe des plantes dicotylédones.
 Ce sont des plantes herbacées, des arbustes, des lianes ou des arbres des régions tempérées à tropicales, que l'on retrouve surtout dans l'hémisphère sud. Leurs feuilles sont généralement opposées, simples, entières ou lobées. Leurs fleurs sont généralement bisexuées.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Logania, nommé en hommage à l'homme d'état et naturaliste irlando-américain James LoganJames Logan (1674-1751). À 25 ans, en 1699, il s’installe dans la colonie de Pennsylvanie (une des treize Colonies de l’empire britannique) où il eut une carrière prestigieuse[1].
-Il fut en effet secrétaire de William Penn (le fondateur de la ville de Philadelphie), tuteur du botaniste américain  John Bartram (1699-1777) « le plus grand botaniste du monde » selon Linné et de Benjamin Franklin (1706-1790)[1] homme politique, écrivain et naturaliste américain. Enfin, en 1720, James Logan fut maire de la ville de Philadelphie (première capitale des États-Unis). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Logania, nommé en hommage à l'homme d'état et naturaliste irlando-américain James LoganJames Logan (1674-1751). À 25 ans, en 1699, il s’installe dans la colonie de Pennsylvanie (une des treize Colonies de l’empire britannique) où il eut une carrière prestigieuse.
+Il fut en effet secrétaire de William Penn (le fondateur de la ville de Philadelphie), tuteur du botaniste américain  John Bartram (1699-1777) « le plus grand botaniste du monde » selon Linné et de Benjamin Franklin (1706-1790) homme politique, écrivain et naturaliste américain. Enfin, en 1720, James Logan fut maire de la ville de Philadelphie (première capitale des États-Unis). 
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la classification classique, la famille des Loganiaceae contient plus de 500 espèces réparties en une trentaine de genres.
-La classification phylogénétique APG (1998)[2], la classification phylogénétique APG II (2003)[3] et la classification phylogénétique APG III (2009)[4] en a modifié la composition et cette famille comprend maintenant un peu plus de 400 espèces réparties en 13 à 14 genres.
+La classification phylogénétique APG (1998), la classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) en a modifié la composition et cette famille comprend maintenant un peu plus de 400 espèces réparties en 13 à 14 genres.
 Quelques plantes classiquement assignées dans cette famille sont maintenant placées dans les Gelsemiacées, Gentianacées et Scrofulariacées.
-La classification phylogénétique APG IV (2016)[5] déplace le genre Sanango (en) des Loganiaceae vers les Gesneriaceae (Lamiales).
+La classification phylogénétique APG IV (2016) déplace le genre Sanango (en) des Loganiaceae vers les Gesneriaceae (Lamiales).
 </t>
         </is>
       </c>
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Classifications récentes
-Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[6] :
+          <t>Classifications récentes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015) :
 Antonia (plante) (en) Pohl
 Bonyunia (es) M.R.Schomb. ex Progel
 Gardneria (es) Wall.
@@ -595,7 +616,7 @@
 Spigelia L.
 Strychnos L.
 Usteria (en) Willd.
-Selon NCBI  (12 nov. 2015)[7] :
+Selon NCBI  (12 nov. 2015) :
 Androya (es)
 Antonia (plante)
 Bonyunia
@@ -613,10 +634,44 @@
 Spigelia
 Strychnos
 Usteria
-Selon DELTA Angio           (12 nov. 2015)[8] :
-Logania
-Classifications anciennes
-Selon ITIS      (6 Jul 2010)[9] (suivant majoritairement la classification classique de Cronquist (1981)[10]):
+Selon DELTA Angio           (12 nov. 2015) :
+Logania</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Loganiaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loganiaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classifications anciennes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (6 Jul 2010) (suivant majoritairement la classification classique de Cronquist (1981)):
 Chilianthus
 Coelostylis
 Cynoctonum
@@ -659,33 +714,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Loganiaceae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Loganiaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (6 Jul 2010)[11] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (6 Jul 2010) :
 genre Androya
 Androya decaryi
 genre Antonia (plante)
